--- a/data/trans_orig/P1416-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1416-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB860297-229A-4AD2-B2E1-9D541407FE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{184F7FCA-C6BA-4B53-8981-0756D79B9AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E09F0E9C-2C53-499C-9F7E-E94DD29F1428}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{68AA10A9-C99E-4AC2-A1C3-BB05B8784BD7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="528">
   <si>
     <t>Población con diagnóstico de alergias crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>8,28%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>9,78%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>91,72%</t>
   </si>
   <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
   </si>
   <si>
     <t>88,63%</t>
   </si>
   <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
   </si>
   <si>
     <t>90,22%</t>
   </si>
   <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,1444 +167,1462 @@
     <t>8,21%</t>
   </si>
   <si>
-    <t>6,38%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,73%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
   </si>
   <si>
     <t>10,54%</t>
   </si>
   <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
   </si>
   <si>
     <t>94,24%</t>
   </si>
   <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>92,89%</t>
   </si>
   <si>
     <t>91,64%</t>
   </si>
   <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,73%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
   </si>
   <si>
     <t>90,32%</t>
   </si>
   <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>87,87%</t>
   </si>
   <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
   </si>
   <si>
     <t>89,02%</t>
   </si>
   <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B865C865-F5D8-4FC9-9AFF-D9F28808F801}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86D434F-BFDC-40A0-8DCD-C4288A7B4CE6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2815,7 +2833,7 @@
         <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -2824,13 +2842,13 @@
         <v>51091</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -2839,13 +2857,13 @@
         <v>78994</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2878,13 @@
         <v>491244</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>454</v>
@@ -2875,13 +2893,13 @@
         <v>464551</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>914</v>
@@ -2890,13 +2908,13 @@
         <v>955795</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,7 +2970,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2970,7 +2988,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2985,7 +3003,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3000,7 +3018,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +3033,13 @@
         <v>25117</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -3030,13 +3048,13 @@
         <v>29126</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M21" s="7">
         <v>53</v>
@@ -3045,13 +3063,13 @@
         <v>54243</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3084,13 @@
         <v>361593</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>368</v>
@@ -3081,13 +3099,13 @@
         <v>374860</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>735</v>
@@ -3096,13 +3114,13 @@
         <v>736453</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,7 +3176,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3176,7 +3194,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3206,7 +3224,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3239,13 @@
         <v>22385</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -3236,13 +3254,13 @@
         <v>48801</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
@@ -3251,13 +3269,13 @@
         <v>71187</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3290,13 @@
         <v>480081</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>613</v>
@@ -3287,10 +3305,10 @@
         <v>628041</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>135</v>
@@ -3460,10 +3478,10 @@
         <v>147</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3496,13 @@
         <v>3057265</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H30" s="7">
         <v>2982</v>
@@ -3493,28 +3511,28 @@
         <v>3055168</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M30" s="7">
         <v>5984</v>
       </c>
       <c r="N30" s="7">
-        <v>6112431</v>
+        <v>6112432</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,7 +3574,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>36</v>
@@ -3570,7 +3588,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3592,7 +3610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA79B428-537C-46B4-A0F5-337A87D1D6B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16D259-BDCB-4BE5-AE4E-7A8F33D09262}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3609,7 +3627,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3722,7 +3740,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3737,7 +3755,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3752,7 +3770,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3785,13 @@
         <v>38709</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>38</v>
@@ -3782,13 +3800,13 @@
         <v>38102</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>76</v>
@@ -3797,13 +3815,13 @@
         <v>76811</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3836,13 @@
         <v>415437</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H6" s="7">
         <v>383</v>
@@ -3833,13 +3851,13 @@
         <v>392128</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>791</v>
@@ -3848,13 +3866,13 @@
         <v>807565</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,7 +3961,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3973,13 +3991,13 @@
         <v>44481</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
@@ -3988,13 +4006,13 @@
         <v>51692</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M9" s="7">
         <v>93</v>
@@ -4003,13 +4021,13 @@
         <v>96172</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +4042,13 @@
         <v>642606</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>522</v>
@@ -4039,13 +4057,13 @@
         <v>558563</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>1145</v>
@@ -4054,13 +4072,13 @@
         <v>1201170</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4197,13 @@
         <v>41864</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -4194,10 +4212,10 @@
         <v>76595</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>202</v>
@@ -4209,7 +4227,7 @@
         <v>118458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>203</v>
@@ -4227,16 +4245,16 @@
         <v>612</v>
       </c>
       <c r="D14" s="7">
-        <v>638977</v>
+        <v>638976</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>596</v>
@@ -4245,13 +4263,13 @@
         <v>632979</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>1208</v>
@@ -4260,13 +4278,13 @@
         <v>1271957</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,7 +4296,7 @@
         <v>650</v>
       </c>
       <c r="D15" s="7">
-        <v>680841</v>
+        <v>680840</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -4340,7 +4358,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4355,7 +4373,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4370,7 +4388,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4403,13 @@
         <v>14795</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -4400,13 +4418,13 @@
         <v>38095</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
         <v>46</v>
@@ -4415,13 +4433,13 @@
         <v>52890</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,13 +4454,13 @@
         <v>599822</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H18" s="7">
         <v>506</v>
@@ -4451,13 +4469,13 @@
         <v>578104</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M18" s="7">
         <v>1041</v>
@@ -4466,13 +4484,13 @@
         <v>1177926</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,7 +4546,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4546,7 +4564,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4561,7 +4579,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4576,7 +4594,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4609,13 @@
         <v>14925</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -4606,13 +4624,13 @@
         <v>19653</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M21" s="7">
         <v>33</v>
@@ -4621,13 +4639,13 @@
         <v>34578</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,13 +4660,13 @@
         <v>414504</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>387</v>
@@ -4657,13 +4675,13 @@
         <v>428147</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>766</v>
@@ -4672,13 +4690,13 @@
         <v>842651</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,7 +4752,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4767,7 +4785,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4782,7 +4800,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,13 +4815,13 @@
         <v>20998</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -4812,13 +4830,13 @@
         <v>36054</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -4827,7 +4845,7 @@
         <v>57052</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>259</v>
@@ -4854,7 +4872,7 @@
         <v>262</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="H26" s="7">
         <v>660</v>
@@ -4863,13 +4881,13 @@
         <v>706921</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M26" s="7">
         <v>1147</v>
@@ -4878,13 +4896,13 @@
         <v>1245560</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +5021,13 @@
         <v>175771</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>271</v>
+        <v>123</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H29" s="7">
         <v>243</v>
@@ -5018,13 +5036,13 @@
         <v>260191</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="M29" s="7">
         <v>407</v>
@@ -5033,13 +5051,13 @@
         <v>435962</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,13 +5072,13 @@
         <v>3249986</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>279</v>
+        <v>131</v>
       </c>
       <c r="H30" s="7">
         <v>3054</v>
@@ -5069,13 +5087,13 @@
         <v>3296843</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>6098</v>
@@ -5146,7 +5164,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5168,7 +5186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52BADB4-ACC0-48E9-AF84-5EEC37F18511}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617A9EC7-BD3C-4F1A-86DE-484A50B6B920}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5298,7 +5316,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5313,7 +5331,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5328,7 +5346,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,10 +5361,10 @@
         <v>43153</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>109</v>
+        <v>285</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>285</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>286</v>
@@ -5358,13 +5376,13 @@
         <v>37514</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M5" s="7">
         <v>80</v>
@@ -5373,13 +5391,13 @@
         <v>80667</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5412,13 @@
         <v>376310</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>293</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>294</v>
+        <v>137</v>
       </c>
       <c r="H6" s="7">
         <v>366</v>
@@ -5409,13 +5427,13 @@
         <v>358241</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M6" s="7">
         <v>717</v>
@@ -5424,13 +5442,13 @@
         <v>734551</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,7 +5522,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5519,7 +5537,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5534,7 +5552,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5567,13 @@
         <v>38193</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="H9" s="7">
         <v>55</v>
@@ -5564,13 +5582,13 @@
         <v>55050</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M9" s="7">
         <v>92</v>
@@ -5579,13 +5597,13 @@
         <v>93244</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,10 +5618,10 @@
         <v>552303</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>309</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>310</v>
@@ -5785,13 +5803,13 @@
         <v>97669</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5824,13 @@
         <v>637213</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>601</v>
@@ -5821,13 +5839,13 @@
         <v>595601</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M14" s="7">
         <v>1210</v>
@@ -5836,13 +5854,13 @@
         <v>1232814</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,7 +5934,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5946,7 +5964,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5979,13 @@
         <v>22150</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -5976,13 +5994,13 @@
         <v>50115</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -5991,13 +6009,13 @@
         <v>72265</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6012,13 +6030,13 @@
         <v>623898</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H18" s="7">
         <v>556</v>
@@ -6027,28 +6045,28 @@
         <v>598962</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>349</v>
+        <v>266</v>
       </c>
       <c r="M18" s="7">
         <v>1118</v>
       </c>
       <c r="N18" s="7">
-        <v>1222860</v>
+        <v>1222861</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>279</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,7 +6108,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -6104,7 +6122,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6122,7 +6140,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6137,7 +6155,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6152,7 +6170,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6167,13 +6185,13 @@
         <v>19131</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>355</v>
+        <v>102</v>
       </c>
       <c r="H21" s="7">
         <v>34</v>
@@ -6182,13 +6200,13 @@
         <v>39704</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M21" s="7">
         <v>51</v>
@@ -6197,13 +6215,13 @@
         <v>58835</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>358</v>
+        <v>123</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6218,13 +6236,13 @@
         <v>458787</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>361</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H22" s="7">
         <v>399</v>
@@ -6233,13 +6251,13 @@
         <v>457145</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="M22" s="7">
         <v>806</v>
@@ -6251,10 +6269,10 @@
         <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>366</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,7 +6328,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6373,13 +6391,13 @@
         <v>12958</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>233</v>
+        <v>365</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -6388,13 +6406,13 @@
         <v>33403</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -6403,13 +6421,13 @@
         <v>46361</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6424,13 +6442,13 @@
         <v>578370</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
@@ -6439,13 +6457,13 @@
         <v>744528</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M26" s="7">
         <v>1238</v>
@@ -6454,10 +6472,10 @@
         <v>1322898</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>380</v>
@@ -6585,7 +6603,7 @@
         <v>382</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>275</v>
+        <v>383</v>
       </c>
       <c r="H29" s="7">
         <v>266</v>
@@ -6594,13 +6612,13 @@
         <v>281571</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M29" s="7">
         <v>426</v>
@@ -6609,13 +6627,13 @@
         <v>449040</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6630,13 +6648,13 @@
         <v>3226881</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H30" s="7">
         <v>3072</v>
@@ -6645,13 +6663,13 @@
         <v>3262971</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M30" s="7">
         <v>6143</v>
@@ -6660,13 +6678,13 @@
         <v>6489852</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6722,7 +6740,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6744,7 +6762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66352990-A307-41A0-87DE-3A53E1323510}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EB4E77-78C8-4BF9-9469-A666043FD297}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6761,7 +6779,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6874,7 +6892,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6889,7 +6907,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6904,7 +6922,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6919,13 +6937,13 @@
         <v>58751</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -6934,13 +6952,13 @@
         <v>35584</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>62</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M5" s="7">
         <v>48</v>
@@ -6949,10 +6967,10 @@
         <v>94334</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>407</v>
@@ -6991,7 +7009,7 @@
         <v>412</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>413</v>
+        <v>71</v>
       </c>
       <c r="M6" s="7">
         <v>329</v>
@@ -7000,13 +7018,13 @@
         <v>635170</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>415</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>416</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,7 +7098,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7089,13 +7107,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7104,13 +7122,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>421</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7143,13 @@
         <v>48578</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H9" s="7">
         <v>63</v>
@@ -7140,13 +7158,13 @@
         <v>65223</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>204</v>
+        <v>423</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M9" s="7">
         <v>97</v>
@@ -7155,13 +7173,13 @@
         <v>113801</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,13 +7194,13 @@
         <v>379818</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="H10" s="7">
         <v>392</v>
@@ -7191,13 +7209,13 @@
         <v>426271</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M10" s="7">
         <v>660</v>
@@ -7209,10 +7227,10 @@
         <v>434</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7286,7 +7304,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7295,13 +7313,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7310,13 +7328,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>139</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,13 +7349,13 @@
         <v>64392</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H13" s="7">
         <v>100</v>
@@ -7346,13 +7364,13 @@
         <v>66238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -7361,10 +7379,10 @@
         <v>130630</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>447</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>448</v>
@@ -7507,7 +7525,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>317</v>
+        <v>39</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7522,7 +7540,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,10 +7573,10 @@
         <v>461</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>462</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M17" s="7">
         <v>237</v>
@@ -7567,13 +7585,13 @@
         <v>179240</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,10 +7609,10 @@
         <v>33</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H18" s="7">
         <v>970</v>
@@ -7603,13 +7621,13 @@
         <v>635675</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="M18" s="7">
         <v>1562</v>
@@ -7618,13 +7636,13 @@
         <v>1286026</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7680,7 +7698,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7707,13 +7725,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7722,13 +7740,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7743,13 +7761,13 @@
         <v>46892</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>260</v>
+        <v>368</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H21" s="7">
         <v>120</v>
@@ -7758,13 +7776,13 @@
         <v>71556</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>479</v>
+        <v>423</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M21" s="7">
         <v>174</v>
@@ -7773,13 +7791,13 @@
         <v>118448</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7794,13 +7812,13 @@
         <v>551192</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>268</v>
+        <v>376</v>
       </c>
       <c r="H22" s="7">
         <v>876</v>
@@ -7809,13 +7827,13 @@
         <v>519429</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M22" s="7">
         <v>1483</v>
@@ -7824,13 +7842,13 @@
         <v>1070621</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7886,7 +7904,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7919,7 +7937,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>491</v>
+        <v>437</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7934,7 +7952,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7949,13 +7967,13 @@
         <v>38179</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="H25" s="7">
         <v>152</v>
@@ -7967,10 +7985,10 @@
         <v>41</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M25" s="7">
         <v>209</v>
@@ -7979,13 +7997,13 @@
         <v>122408</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>387</v>
+        <v>498</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>496</v>
+        <v>339</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8000,13 +8018,13 @@
         <v>658798</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H26" s="7">
         <v>1554</v>
@@ -8018,10 +8036,10 @@
         <v>50</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M26" s="7">
         <v>2524</v>
@@ -8030,13 +8048,13 @@
         <v>1600242</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>393</v>
+        <v>505</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>503</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8119,13 +8137,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8134,13 +8152,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8155,13 +8173,13 @@
         <v>327252</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H29" s="7">
         <v>625</v>
@@ -8170,13 +8188,13 @@
         <v>431609</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>87</v>
+        <v>516</v>
       </c>
       <c r="M29" s="7">
         <v>927</v>
@@ -8185,13 +8203,13 @@
         <v>758862</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8206,13 +8224,13 @@
         <v>3051945</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="H30" s="7">
         <v>4718</v>
@@ -8221,13 +8239,13 @@
         <v>3354705</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="M30" s="7">
         <v>7786</v>
@@ -8236,13 +8254,13 @@
         <v>6406650</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8298,7 +8316,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1416-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1416-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{184F7FCA-C6BA-4B53-8981-0756D79B9AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FD2E005-6637-4C66-A53D-FB6C87F437ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{68AA10A9-C99E-4AC2-A1C3-BB05B8784BD7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2DC47EE5-930D-434F-AC47-8B0F7368226E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="531">
   <si>
     <t>Población con diagnóstico de alergias crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1413 +95,1434 @@
     <t>8,28%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
     <t>8,86%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
   </si>
   <si>
     <t>8,09%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>91,91%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
   </si>
   <si>
     <t>92,66%</t>
   </si>
   <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,73%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>94,12%</t>
   </si>
   <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,73%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
     <t>87,48%</t>
   </si>
   <si>
@@ -1529,9 +1550,6 @@
     <t>7,08%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
     <t>9,89%</t>
   </si>
   <si>
@@ -1553,9 +1571,6 @@
     <t>90,11%</t>
   </si>
   <si>
-    <t>94,24%</t>
-  </si>
-  <si>
     <t>92,89%</t>
   </si>
   <si>
@@ -1580,9 +1595,6 @@
     <t>9,68%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
     <t>10,99%</t>
   </si>
   <si>
@@ -1602,9 +1614,6 @@
   </si>
   <si>
     <t>89,01%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
   </si>
   <si>
     <t>87,87%</t>
@@ -2034,7 +2043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86D434F-BFDC-40A0-8DCD-C4288A7B4CE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB7B8E-E532-4099-8F43-8750EBFC7923}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2833,7 +2842,7 @@
         <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -2842,10 +2851,10 @@
         <v>51091</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>86</v>
@@ -2881,10 +2890,10 @@
         <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>454</v>
@@ -2893,13 +2902,13 @@
         <v>464551</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="M18" s="7">
         <v>914</v>
@@ -3478,10 +3487,10 @@
         <v>147</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,16 +3502,16 @@
         <v>3002</v>
       </c>
       <c r="D30" s="7">
-        <v>3057265</v>
+        <v>3057264</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H30" s="7">
         <v>2982</v>
@@ -3511,13 +3520,13 @@
         <v>3055168</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M30" s="7">
         <v>5984</v>
@@ -3526,13 +3535,13 @@
         <v>6112432</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,7 +3553,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>36</v>
@@ -3588,7 +3597,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3610,7 +3619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16D259-BDCB-4BE5-AE4E-7A8F33D09262}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62565699-22E6-4FBD-8E68-E17300782C1D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3627,7 +3636,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3740,7 +3749,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3755,7 +3764,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3770,7 +3779,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3794,13 @@
         <v>38709</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>38</v>
@@ -3800,13 +3809,13 @@
         <v>38102</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>76</v>
@@ -3815,13 +3824,13 @@
         <v>76811</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3845,13 @@
         <v>415437</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H6" s="7">
         <v>383</v>
@@ -3851,13 +3860,13 @@
         <v>392128</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="M6" s="7">
         <v>791</v>
@@ -4227,7 +4236,7 @@
         <v>118458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>203</v>
@@ -4245,7 +4254,7 @@
         <v>612</v>
       </c>
       <c r="D14" s="7">
-        <v>638976</v>
+        <v>638977</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>205</v>
@@ -4278,7 +4287,7 @@
         <v>1271957</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>211</v>
@@ -4296,7 +4305,7 @@
         <v>650</v>
       </c>
       <c r="D15" s="7">
-        <v>680840</v>
+        <v>680841</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -4818,10 +4827,10 @@
         <v>254</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -4830,13 +4839,13 @@
         <v>36054</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -4845,13 +4854,13 @@
         <v>57052</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4875,13 @@
         <v>538639</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="H26" s="7">
         <v>660</v>
@@ -4881,13 +4890,13 @@
         <v>706921</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M26" s="7">
         <v>1147</v>
@@ -4896,13 +4905,13 @@
         <v>1245560</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,13 +5030,13 @@
         <v>175771</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>123</v>
+        <v>273</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H29" s="7">
         <v>243</v>
@@ -5036,13 +5045,13 @@
         <v>260191</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M29" s="7">
         <v>407</v>
@@ -5051,13 +5060,13 @@
         <v>435962</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5081,13 @@
         <v>3249986</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="H30" s="7">
         <v>3054</v>
@@ -5087,13 +5096,13 @@
         <v>3296843</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M30" s="7">
         <v>6098</v>
@@ -5102,13 +5111,13 @@
         <v>6546828</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,7 +5173,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5186,7 +5195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617A9EC7-BD3C-4F1A-86DE-484A50B6B920}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1517BE-E1C1-4766-9168-5BB39357B887}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5203,7 +5212,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5361,13 +5370,13 @@
         <v>43153</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>292</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="H5" s="7">
         <v>38</v>
@@ -5376,13 +5385,13 @@
         <v>37514</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="M5" s="7">
         <v>80</v>
@@ -5391,13 +5400,13 @@
         <v>80667</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5421,13 @@
         <v>376310</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>137</v>
+        <v>301</v>
       </c>
       <c r="H6" s="7">
         <v>366</v>
@@ -5427,13 +5436,13 @@
         <v>358241</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="M6" s="7">
         <v>717</v>
@@ -5442,13 +5451,13 @@
         <v>734551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,7 +5546,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5552,7 +5561,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,10 +5579,10 @@
         <v>179</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>302</v>
+        <v>145</v>
       </c>
       <c r="H9" s="7">
         <v>55</v>
@@ -5582,13 +5591,13 @@
         <v>55050</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>304</v>
+        <v>148</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M9" s="7">
         <v>92</v>
@@ -5597,13 +5606,13 @@
         <v>93244</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,10 +5630,10 @@
         <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>309</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H10" s="7">
         <v>524</v>
@@ -5633,13 +5642,13 @@
         <v>508494</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>313</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>1054</v>
@@ -5648,13 +5657,13 @@
         <v>1060796</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,7 +5737,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5773,13 +5782,13 @@
         <v>31884</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -5788,13 +5797,13 @@
         <v>65785</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -5803,13 +5812,13 @@
         <v>97669</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>328</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5833,13 @@
         <v>637213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H14" s="7">
         <v>601</v>
@@ -5839,13 +5848,13 @@
         <v>595601</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M14" s="7">
         <v>1210</v>
@@ -5854,13 +5863,13 @@
         <v>1232814</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,7 +5943,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5979,13 +5988,13 @@
         <v>22150</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -5994,13 +6003,13 @@
         <v>50115</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -6009,13 +6018,13 @@
         <v>72265</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,13 +6039,13 @@
         <v>623898</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="H18" s="7">
         <v>556</v>
@@ -6045,28 +6054,28 @@
         <v>598962</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="M18" s="7">
         <v>1118</v>
       </c>
       <c r="N18" s="7">
-        <v>1222861</v>
+        <v>1222860</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,7 +6117,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -6140,7 +6149,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6155,7 +6164,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6170,7 +6179,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,13 +6194,13 @@
         <v>19131</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>102</v>
+        <v>359</v>
       </c>
       <c r="H21" s="7">
         <v>34</v>
@@ -6200,13 +6209,13 @@
         <v>39704</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="M21" s="7">
         <v>51</v>
@@ -6218,10 +6227,10 @@
         <v>128</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>123</v>
+        <v>363</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>356</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,13 +6245,13 @@
         <v>458787</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>365</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="H22" s="7">
         <v>399</v>
@@ -6251,13 +6260,13 @@
         <v>457145</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="M22" s="7">
         <v>806</v>
@@ -6269,10 +6278,10 @@
         <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>362</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6391,13 +6400,13 @@
         <v>12958</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -6406,13 +6415,13 @@
         <v>33403</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -6421,13 +6430,13 @@
         <v>46361</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6451,13 @@
         <v>578370</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
@@ -6457,13 +6466,13 @@
         <v>744528</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="M26" s="7">
         <v>1238</v>
@@ -6472,13 +6481,13 @@
         <v>1322898</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6597,13 +6606,13 @@
         <v>167469</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H29" s="7">
         <v>266</v>
@@ -6612,13 +6621,13 @@
         <v>281571</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>386</v>
+        <v>110</v>
       </c>
       <c r="M29" s="7">
         <v>426</v>
@@ -6630,10 +6639,10 @@
         <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,13 +6657,13 @@
         <v>3226881</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H30" s="7">
         <v>3072</v>
@@ -6663,13 +6672,13 @@
         <v>3262971</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>393</v>
+        <v>118</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M30" s="7">
         <v>6143</v>
@@ -6681,10 +6690,10 @@
         <v>188</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,7 +6749,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -6762,7 +6771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EB4E77-78C8-4BF9-9469-A666043FD297}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95645A79-680E-4181-BD8F-5985E2C7B759}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6779,7 +6788,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6892,7 +6901,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6907,7 +6916,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6922,7 +6931,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6937,13 +6946,13 @@
         <v>58751</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -6952,13 +6961,13 @@
         <v>35584</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M5" s="7">
         <v>48</v>
@@ -6967,13 +6976,13 @@
         <v>94334</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6988,13 +6997,13 @@
         <v>318928</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H6" s="7">
         <v>182</v>
@@ -7003,10 +7012,10 @@
         <v>316241</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>71</v>
@@ -7018,13 +7027,13 @@
         <v>635170</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,7 +7107,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7107,13 +7116,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7122,7 +7131,7 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
@@ -7143,13 +7152,13 @@
         <v>48578</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H9" s="7">
         <v>63</v>
@@ -7158,13 +7167,13 @@
         <v>65223</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M9" s="7">
         <v>97</v>
@@ -7173,13 +7182,13 @@
         <v>113801</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7203,13 @@
         <v>379818</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H10" s="7">
         <v>392</v>
@@ -7209,13 +7218,13 @@
         <v>426271</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M10" s="7">
         <v>660</v>
@@ -7224,13 +7233,13 @@
         <v>806089</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,13 +7322,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7328,13 +7337,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>139</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7358,13 @@
         <v>64392</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H13" s="7">
         <v>100</v>
@@ -7364,13 +7373,13 @@
         <v>66238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -7379,13 +7388,13 @@
         <v>130630</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>104</v>
+        <v>452</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,13 +7409,13 @@
         <v>492860</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="H14" s="7">
         <v>744</v>
@@ -7415,13 +7424,13 @@
         <v>515645</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="M14" s="7">
         <v>1228</v>
@@ -7430,13 +7439,13 @@
         <v>1008504</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,7 +7528,7 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
@@ -7540,7 +7549,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,10 +7567,10 @@
         <v>23</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="H17" s="7">
         <v>167</v>
@@ -7570,13 +7579,13 @@
         <v>108780</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="M17" s="7">
         <v>237</v>
@@ -7585,13 +7594,13 @@
         <v>179240</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,10 +7618,10 @@
         <v>33</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="H18" s="7">
         <v>970</v>
@@ -7621,13 +7630,13 @@
         <v>635675</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="M18" s="7">
         <v>1562</v>
@@ -7636,13 +7645,13 @@
         <v>1286026</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7731,7 +7740,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7740,13 +7749,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7761,13 +7770,13 @@
         <v>46892</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>368</v>
+        <v>484</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="H21" s="7">
         <v>120</v>
@@ -7776,13 +7785,13 @@
         <v>71556</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="M21" s="7">
         <v>174</v>
@@ -7791,13 +7800,13 @@
         <v>118448</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7812,13 +7821,13 @@
         <v>551192</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>376</v>
+        <v>493</v>
       </c>
       <c r="H22" s="7">
         <v>876</v>
@@ -7827,13 +7836,13 @@
         <v>519429</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="M22" s="7">
         <v>1483</v>
@@ -7842,13 +7851,13 @@
         <v>1070621</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7937,7 +7946,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7952,7 +7961,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7967,13 +7976,13 @@
         <v>38179</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="H25" s="7">
         <v>152</v>
@@ -7985,10 +7994,10 @@
         <v>41</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>496</v>
+        <v>344</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="M25" s="7">
         <v>209</v>
@@ -7997,13 +8006,13 @@
         <v>122408</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8018,13 +8027,13 @@
         <v>658798</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="H26" s="7">
         <v>1554</v>
@@ -8036,10 +8045,10 @@
         <v>50</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>504</v>
+        <v>352</v>
       </c>
       <c r="M26" s="7">
         <v>2524</v>
@@ -8048,13 +8057,13 @@
         <v>1600242</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,13 +8146,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8152,13 +8161,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8173,13 +8182,13 @@
         <v>327252</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>513</v>
+        <v>221</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="H29" s="7">
         <v>625</v>
@@ -8188,13 +8197,13 @@
         <v>431609</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="M29" s="7">
         <v>927</v>
@@ -8203,13 +8212,13 @@
         <v>758862</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8224,13 +8233,13 @@
         <v>3051945</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>521</v>
+        <v>229</v>
       </c>
       <c r="H30" s="7">
         <v>4718</v>
@@ -8239,13 +8248,13 @@
         <v>3354705</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="M30" s="7">
         <v>7786</v>
@@ -8254,13 +8263,13 @@
         <v>6406650</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8316,7 +8325,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1416-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1416-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8250CAB-E737-4653-8744-52E6A37690BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B60B578A-7FA9-4291-AD1A-73E2D78F6A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA734BC5-7776-4862-8FAC-D2760023C348}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8110B02D-BE6D-48BA-BAAF-7DFA205F0D5A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="523">
   <si>
     <t>Población con diagnóstico de alergias crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>8,21%</t>
@@ -191,7 +191,7 @@
     <t>92,19%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>6,67%</t>
@@ -248,7 +248,7 @@
     <t>92,72%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>5,37%</t>
@@ -305,7 +305,7 @@
     <t>93,9%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>6,49%</t>
@@ -362,213 +362,282 @@
     <t>94,77%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>93,96%</t>
   </si>
   <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
     <t>6,15%</t>
   </si>
   <si>
@@ -713,58 +782,100 @@
     <t>97,25%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>96,54%</t>
   </si>
   <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>5,13%</t>
@@ -860,15 +971,9 @@
     <t>91,97%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
     <t>12,39%</t>
   </si>
   <si>
@@ -881,18 +986,12 @@
     <t>10,02%</t>
   </si>
   <si>
-    <t>95,33%</t>
-  </si>
-  <si>
     <t>90,23%</t>
   </si>
   <si>
     <t>87,61%</t>
   </si>
   <si>
-    <t>92,48%</t>
-  </si>
-  <si>
     <t>91,92%</t>
   </si>
   <si>
@@ -1046,46 +1145,100 @@
     <t>95,57%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>4,93%</t>
@@ -1133,322 +1286,328 @@
     <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
   <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
   </si>
   <si>
     <t>92,16%</t>
   </si>
   <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
 </sst>
 </file>
@@ -1860,8 +2019,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D4A0CD-1656-469D-8598-E9EDA167B163}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C6F4F-CBBB-40D7-AB2D-A83EA310C6FA}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2753,10 +2912,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>22385</v>
+        <v>13663</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2768,34 +2927,34 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I19" s="7">
-        <v>48801</v>
+        <v>33869</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="N19" s="7">
-        <v>71187</v>
+        <v>47532</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,49 +2963,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>500</v>
+        <v>289</v>
       </c>
       <c r="D20" s="7">
-        <v>480081</v>
+        <v>278920</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>613</v>
+        <v>336</v>
       </c>
       <c r="I20" s="7">
-        <v>628041</v>
+        <v>309065</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="M20" s="7">
-        <v>1113</v>
+        <v>625</v>
       </c>
       <c r="N20" s="7">
-        <v>1108121</v>
+        <v>587985</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,10 +3014,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2870,10 +3029,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2885,10 +3044,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2902,55 +3061,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>212</v>
+        <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>219279</v>
+        <v>8722</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>315</v>
+        <v>13</v>
       </c>
       <c r="I22" s="7">
-        <v>324030</v>
+        <v>14932</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>527</v>
+        <v>22</v>
       </c>
       <c r="N22" s="7">
-        <v>543309</v>
+        <v>23654</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,49 +3118,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3002</v>
+        <v>211</v>
       </c>
       <c r="D23" s="7">
-        <v>3057265</v>
+        <v>201161</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>2982</v>
+        <v>277</v>
       </c>
       <c r="I23" s="7">
-        <v>3055168</v>
+        <v>318976</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>5984</v>
+        <v>488</v>
       </c>
       <c r="N23" s="7">
-        <v>6112431</v>
+        <v>520137</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,63 +3169,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>212</v>
+      </c>
+      <c r="D25" s="7">
+        <v>219279</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>315</v>
+      </c>
+      <c r="I25" s="7">
+        <v>324030</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>527</v>
+      </c>
+      <c r="N25" s="7">
+        <v>543309</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3002</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3057264</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2982</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3055167</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5984</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6112432</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3079,8 +3394,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC94104B-FC12-4A88-93D7-11E9EDC3AB4E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB595BC3-3E23-4E24-B30E-5182FF836CA3}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3096,7 +3411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3203,13 +3518,13 @@
         <v>38709</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -3218,13 +3533,13 @@
         <v>38102</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>76</v>
@@ -3233,13 +3548,13 @@
         <v>76811</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3569,13 @@
         <v>415437</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>383</v>
@@ -3269,13 +3584,13 @@
         <v>392128</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>791</v>
@@ -3284,13 +3599,13 @@
         <v>807565</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3673,13 @@
         <v>44481</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -3373,13 +3688,13 @@
         <v>51692</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>93</v>
@@ -3388,13 +3703,13 @@
         <v>96172</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3724,13 @@
         <v>642606</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>522</v>
@@ -3424,13 +3739,13 @@
         <v>558563</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>1145</v>
@@ -3439,13 +3754,13 @@
         <v>1201170</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,10 +3828,10 @@
         <v>41864</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>36</v>
@@ -3528,13 +3843,13 @@
         <v>76595</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -3543,13 +3858,13 @@
         <v>118458</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3879,13 @@
         <v>638977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>596</v>
@@ -3579,10 +3894,10 @@
         <v>632979</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>61</v>
@@ -3594,13 +3909,13 @@
         <v>1271957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3983,13 @@
         <v>14795</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -3683,13 +3998,13 @@
         <v>38095</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -3698,13 +4013,13 @@
         <v>52890</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +4034,13 @@
         <v>599822</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>506</v>
@@ -3734,13 +4049,13 @@
         <v>578104</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>1041</v>
@@ -3749,13 +4064,13 @@
         <v>1177926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,13 +4138,13 @@
         <v>14925</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -3838,13 +4153,13 @@
         <v>19653</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -3853,13 +4168,13 @@
         <v>34578</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +4189,13 @@
         <v>414504</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>387</v>
@@ -3889,13 +4204,13 @@
         <v>428147</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>766</v>
@@ -3904,13 +4219,13 @@
         <v>842651</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,49 +4287,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>20998</v>
+        <v>12359</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>226</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I19" s="7">
-        <v>36054</v>
+        <v>14979</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="M19" s="7">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="N19" s="7">
-        <v>57052</v>
+        <v>27339</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,49 +4338,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>487</v>
+        <v>272</v>
       </c>
       <c r="D20" s="7">
-        <v>538639</v>
+        <v>297427</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
-        <v>660</v>
+        <v>329</v>
       </c>
       <c r="I20" s="7">
-        <v>706921</v>
+        <v>339017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
-        <v>1147</v>
+        <v>601</v>
       </c>
       <c r="N20" s="7">
-        <v>1245560</v>
+        <v>636443</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,10 +4389,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4089,10 +4404,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4104,10 +4419,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4121,55 +4436,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>175771</v>
+        <v>8639</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="H22" s="7">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="I22" s="7">
-        <v>260191</v>
+        <v>21075</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>36</v>
+        <v>266</v>
       </c>
       <c r="M22" s="7">
-        <v>407</v>
+        <v>26</v>
       </c>
       <c r="N22" s="7">
-        <v>435962</v>
+        <v>29713</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,49 +4493,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3044</v>
+        <v>215</v>
       </c>
       <c r="D23" s="7">
-        <v>3249986</v>
+        <v>241212</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="H23" s="7">
-        <v>3054</v>
+        <v>331</v>
       </c>
       <c r="I23" s="7">
-        <v>3296843</v>
+        <v>367904</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>46</v>
+        <v>274</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="M23" s="7">
-        <v>6098</v>
+        <v>546</v>
       </c>
       <c r="N23" s="7">
-        <v>6546828</v>
+        <v>609117</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,63 +4544,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>164</v>
+      </c>
+      <c r="D25" s="7">
+        <v>175771</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H25" s="7">
+        <v>243</v>
+      </c>
+      <c r="I25" s="7">
+        <v>260191</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="7">
+        <v>407</v>
+      </c>
+      <c r="N25" s="7">
+        <v>435962</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3044</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3249986</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3054</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3296843</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6098</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6546828</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3208</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3425757</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3557034</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6505</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6982790</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4298,8 +4769,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB72B59C-CA1E-40F3-B0FE-3ABC0B06BF20}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A950F0E-EFA0-4EFC-A434-3454B1316FE9}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4315,7 +4786,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4425,10 +4896,10 @@
         <v>94</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -4437,13 +4908,13 @@
         <v>37514</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="M4" s="7">
         <v>80</v>
@@ -4452,13 +4923,13 @@
         <v>80667</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,10 +4947,10 @@
         <v>102</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="H5" s="7">
         <v>366</v>
@@ -4488,13 +4959,13 @@
         <v>358241</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="M5" s="7">
         <v>717</v>
@@ -4503,13 +4974,13 @@
         <v>734551</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,10 +5048,10 @@
         <v>38193</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -4592,13 +5063,13 @@
         <v>55050</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>275</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>92</v>
@@ -4607,13 +5078,13 @@
         <v>93244</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +5099,13 @@
         <v>552303</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>280</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>524</v>
@@ -4643,13 +5114,13 @@
         <v>508494</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>1054</v>
@@ -4658,13 +5129,13 @@
         <v>1060796</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +5203,13 @@
         <v>31884</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -4747,13 +5218,13 @@
         <v>65785</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -4762,13 +5233,13 @@
         <v>97669</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +5254,13 @@
         <v>637213</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
         <v>601</v>
@@ -4798,13 +5269,13 @@
         <v>595601</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
         <v>1210</v>
@@ -4813,13 +5284,13 @@
         <v>1232814</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,13 +5358,13 @@
         <v>22150</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -4902,13 +5373,13 @@
         <v>50115</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -4917,13 +5388,13 @@
         <v>72265</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +5409,13 @@
         <v>623898</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="H14" s="7">
         <v>556</v>
@@ -4953,13 +5424,13 @@
         <v>598962</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="M14" s="7">
         <v>1118</v>
@@ -4968,13 +5439,13 @@
         <v>1222860</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,13 +5513,13 @@
         <v>19131</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -5057,13 +5528,13 @@
         <v>39704</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -5072,13 +5543,13 @@
         <v>58835</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5564,13 @@
         <v>458787</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>399</v>
@@ -5108,13 +5579,13 @@
         <v>457145</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>806</v>
@@ -5123,13 +5594,13 @@
         <v>915932</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,49 +5662,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>12958</v>
+        <v>4690</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>370</v>
       </c>
       <c r="H19" s="7">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>33403</v>
+        <v>13338</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>338</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="M19" s="7">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="N19" s="7">
-        <v>46361</v>
+        <v>18029</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,49 +5713,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>612</v>
+        <v>320</v>
       </c>
       <c r="D20" s="7">
-        <v>578370</v>
+        <v>329640</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>377</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="H20" s="7">
-        <v>626</v>
+        <v>341</v>
       </c>
       <c r="I20" s="7">
-        <v>744528</v>
+        <v>364424</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>346</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
-        <v>1238</v>
+        <v>661</v>
       </c>
       <c r="N20" s="7">
-        <v>1322898</v>
+        <v>694063</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>382</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,10 +5764,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5308,10 +5779,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5323,10 +5794,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5340,55 +5811,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>167469</v>
+        <v>8267</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>247</v>
+        <v>386</v>
       </c>
       <c r="H22" s="7">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="I22" s="7">
-        <v>281571</v>
+        <v>20064</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
-        <v>426</v>
+        <v>26</v>
       </c>
       <c r="N22" s="7">
-        <v>449040</v>
+        <v>28332</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>389</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,49 +5868,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3071</v>
+        <v>292</v>
       </c>
       <c r="D23" s="7">
-        <v>3226881</v>
+        <v>248731</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>255</v>
+        <v>393</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="H23" s="7">
-        <v>3072</v>
+        <v>285</v>
       </c>
       <c r="I23" s="7">
-        <v>3262971</v>
+        <v>380105</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="M23" s="7">
-        <v>6143</v>
+        <v>577</v>
       </c>
       <c r="N23" s="7">
-        <v>6489852</v>
+        <v>628835</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>168</v>
+        <v>397</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,63 +5919,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>160</v>
+      </c>
+      <c r="D25" s="7">
+        <v>167469</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H25" s="7">
+        <v>266</v>
+      </c>
+      <c r="I25" s="7">
+        <v>281571</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="M25" s="7">
+        <v>426</v>
+      </c>
+      <c r="N25" s="7">
+        <v>449040</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3071</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3226881</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3072</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3262971</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6143</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6489852</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5517,8 +6144,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9A5E7A-3AE0-4357-808A-A5840921F308}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547F45BC-E461-44A1-9C23-8709D68313BB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5534,7 +6161,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5638,46 +6265,46 @@
         <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>58751</v>
+        <v>65807</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>35584</v>
+        <v>31888</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>368</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
       </c>
       <c r="N4" s="7">
-        <v>94334</v>
+        <v>97694</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,46 +6316,46 @@
         <v>147</v>
       </c>
       <c r="D5" s="7">
-        <v>318928</v>
+        <v>334180</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="H5" s="7">
         <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>316241</v>
+        <v>278961</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>378</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>329</v>
       </c>
       <c r="N5" s="7">
-        <v>635170</v>
+        <v>613142</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,7 +6367,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5755,7 +6382,7 @@
         <v>205</v>
       </c>
       <c r="I6" s="7">
-        <v>351825</v>
+        <v>310849</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5770,7 +6397,7 @@
         <v>377</v>
       </c>
       <c r="N6" s="7">
-        <v>729504</v>
+        <v>710836</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5793,46 +6420,46 @@
         <v>34</v>
       </c>
       <c r="D7" s="7">
-        <v>48578</v>
+        <v>49379</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="H7" s="7">
         <v>63</v>
       </c>
       <c r="I7" s="7">
-        <v>65223</v>
+        <v>59807</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>367</v>
+        <v>435</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="M7" s="7">
         <v>97</v>
       </c>
       <c r="N7" s="7">
-        <v>113801</v>
+        <v>109185</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>292</v>
+        <v>437</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,46 +6471,46 @@
         <v>268</v>
       </c>
       <c r="D8" s="7">
-        <v>379818</v>
+        <v>374168</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="H8" s="7">
         <v>392</v>
       </c>
       <c r="I8" s="7">
-        <v>426270</v>
+        <v>445864</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>376</v>
+        <v>445</v>
       </c>
       <c r="M8" s="7">
         <v>660</v>
       </c>
       <c r="N8" s="7">
-        <v>806089</v>
+        <v>820033</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>446</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,7 +6522,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5910,7 +6537,7 @@
         <v>455</v>
       </c>
       <c r="I9" s="7">
-        <v>491493</v>
+        <v>505671</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5925,7 +6552,7 @@
         <v>757</v>
       </c>
       <c r="N9" s="7">
-        <v>919890</v>
+        <v>929218</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5948,46 +6575,46 @@
         <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>64392</v>
+        <v>62807</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
       </c>
       <c r="I10" s="7">
-        <v>66238</v>
+        <v>61187</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="M10" s="7">
         <v>162</v>
       </c>
       <c r="N10" s="7">
-        <v>130630</v>
+        <v>123994</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,46 +6626,46 @@
         <v>484</v>
       </c>
       <c r="D11" s="7">
-        <v>492860</v>
+        <v>473531</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="H11" s="7">
         <v>744</v>
       </c>
       <c r="I11" s="7">
-        <v>515644</v>
+        <v>479873</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="M11" s="7">
         <v>1228</v>
       </c>
       <c r="N11" s="7">
-        <v>1008504</v>
+        <v>953405</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,7 +6677,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6065,7 +6692,7 @@
         <v>844</v>
       </c>
       <c r="I12" s="7">
-        <v>581882</v>
+        <v>541060</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6080,7 +6707,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1139134</v>
+        <v>1077399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6103,46 +6730,46 @@
         <v>70</v>
       </c>
       <c r="D13" s="7">
-        <v>70460</v>
+        <v>67517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>415</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
         <v>167</v>
       </c>
       <c r="I13" s="7">
-        <v>108780</v>
+        <v>100151</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="M13" s="7">
         <v>237</v>
       </c>
       <c r="N13" s="7">
-        <v>179240</v>
+        <v>167668</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>419</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,46 +6781,46 @@
         <v>592</v>
       </c>
       <c r="D14" s="7">
-        <v>650350</v>
+        <v>817289</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>422</v>
+        <v>28</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7">
         <v>970</v>
       </c>
       <c r="I14" s="7">
-        <v>635676</v>
+        <v>610213</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="M14" s="7">
         <v>1562</v>
       </c>
       <c r="N14" s="7">
-        <v>1286025</v>
+        <v>1427503</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>427</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,7 +6832,7 @@
         <v>662</v>
       </c>
       <c r="D15" s="7">
-        <v>720810</v>
+        <v>884806</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6220,7 +6847,7 @@
         <v>1137</v>
       </c>
       <c r="I15" s="7">
-        <v>744456</v>
+        <v>710364</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6235,7 +6862,7 @@
         <v>1799</v>
       </c>
       <c r="N15" s="7">
-        <v>1465265</v>
+        <v>1595171</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6258,46 +6885,46 @@
         <v>54</v>
       </c>
       <c r="D16" s="7">
-        <v>46892</v>
+        <v>43839</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>327</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
       </c>
       <c r="I16" s="7">
-        <v>71556</v>
+        <v>65200</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>279</v>
+        <v>480</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
       </c>
       <c r="N16" s="7">
-        <v>118448</v>
+        <v>109039</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>434</v>
+        <v>299</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>55</v>
+        <v>483</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,46 +6936,46 @@
         <v>607</v>
       </c>
       <c r="D17" s="7">
-        <v>551192</v>
+        <v>515440</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>337</v>
       </c>
       <c r="H17" s="7">
         <v>876</v>
       </c>
       <c r="I17" s="7">
-        <v>519429</v>
+        <v>477335</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>285</v>
+        <v>486</v>
       </c>
       <c r="M17" s="7">
         <v>1483</v>
       </c>
       <c r="N17" s="7">
-        <v>1070621</v>
+        <v>992775</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>440</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,7 +6987,7 @@
         <v>661</v>
       </c>
       <c r="D18" s="7">
-        <v>598084</v>
+        <v>559279</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6375,7 +7002,7 @@
         <v>996</v>
       </c>
       <c r="I18" s="7">
-        <v>590985</v>
+        <v>542535</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6390,7 +7017,7 @@
         <v>1657</v>
       </c>
       <c r="N18" s="7">
-        <v>1189069</v>
+        <v>1101814</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6410,49 +7037,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7">
-        <v>38179</v>
+        <v>20477</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>442</v>
+        <v>342</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>492</v>
       </c>
       <c r="H19" s="7">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>84229</v>
+        <v>39665</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>32</v>
+        <v>493</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="M19" s="7">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="N19" s="7">
-        <v>122408</v>
+        <v>60142</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>496</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>446</v>
+        <v>268</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,49 +7088,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>970</v>
+        <v>537</v>
       </c>
       <c r="D20" s="7">
-        <v>658798</v>
+        <v>346970</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>448</v>
+        <v>351</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="H20" s="7">
-        <v>1554</v>
+        <v>744</v>
       </c>
       <c r="I20" s="7">
-        <v>941444</v>
+        <v>568158</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>41</v>
+        <v>499</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="M20" s="7">
-        <v>2524</v>
+        <v>1281</v>
       </c>
       <c r="N20" s="7">
-        <v>1600242</v>
+        <v>915128</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>361</v>
+        <v>502</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>453</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,10 +7139,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696977</v>
+        <v>367447</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6527,10 +7154,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1025673</v>
+        <v>607823</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6542,10 +7169,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2733</v>
+        <v>1395</v>
       </c>
       <c r="N21" s="7">
-        <v>1722650</v>
+        <v>975270</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6559,55 +7186,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>302</v>
+        <v>25</v>
       </c>
       <c r="D22" s="7">
-        <v>327252</v>
+        <v>15189</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>454</v>
+        <v>70</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="H22" s="7">
-        <v>625</v>
+        <v>70</v>
       </c>
       <c r="I22" s="7">
-        <v>431609</v>
+        <v>35095</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>457</v>
+        <v>36</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>459</v>
+        <v>94</v>
       </c>
       <c r="M22" s="7">
-        <v>927</v>
+        <v>95</v>
       </c>
       <c r="N22" s="7">
-        <v>758862</v>
+        <v>50284</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>460</v>
+        <v>505</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>506</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>461</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,49 +7243,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3068</v>
+        <v>433</v>
       </c>
       <c r="D23" s="7">
-        <v>3051945</v>
+        <v>267570</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="H23" s="7">
-        <v>4718</v>
+        <v>810</v>
       </c>
       <c r="I23" s="7">
-        <v>3354705</v>
+        <v>390435</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>465</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>466</v>
+        <v>102</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="M23" s="7">
-        <v>7786</v>
+        <v>1243</v>
       </c>
       <c r="N23" s="7">
-        <v>6406650</v>
+        <v>658005</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>469</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>281</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,63 +7294,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425530</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708289</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>302</v>
+      </c>
+      <c r="D25" s="7">
+        <v>325015</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="H25" s="7">
+        <v>625</v>
+      </c>
+      <c r="I25" s="7">
+        <v>392992</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="M25" s="7">
+        <v>927</v>
+      </c>
+      <c r="N25" s="7">
+        <v>718007</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3068</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3129149</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4718</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3250840</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7786</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6379989</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3370</v>
       </c>
-      <c r="D24" s="7">
-        <v>3379197</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3454164</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5343</v>
       </c>
-      <c r="I24" s="7">
-        <v>3786314</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3643832</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8713</v>
       </c>
-      <c r="N24" s="7">
-        <v>7165512</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7097996</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
